--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inhba-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Inhba-Acvr2a.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.675031333333333</v>
+        <v>0.08097566666666667</v>
       </c>
       <c r="H2">
-        <v>11.025094</v>
+        <v>0.242927</v>
       </c>
       <c r="I2">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505014</v>
       </c>
       <c r="J2">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505015</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N2">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O2">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P2">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q2">
-        <v>29.18122737427311</v>
+        <v>1.275823425768111</v>
       </c>
       <c r="R2">
-        <v>262.631046368458</v>
+        <v>11.482410831913</v>
       </c>
       <c r="S2">
-        <v>0.03925827674964126</v>
+        <v>0.001799966049784019</v>
       </c>
       <c r="T2">
-        <v>0.03925827674964126</v>
+        <v>0.001799966049784019</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.675031333333333</v>
+        <v>0.08097566666666667</v>
       </c>
       <c r="H3">
-        <v>11.025094</v>
+        <v>0.242927</v>
       </c>
       <c r="I3">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505014</v>
       </c>
       <c r="J3">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505015</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>80.861542</v>
       </c>
       <c r="O3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q3">
-        <v>99.05623350388311</v>
+        <v>2.182605757048222</v>
       </c>
       <c r="R3">
-        <v>891.5061015349479</v>
+        <v>19.643451813434</v>
       </c>
       <c r="S3">
-        <v>0.133262970018217</v>
+        <v>0.003079278984381963</v>
       </c>
       <c r="T3">
-        <v>0.133262970018217</v>
+        <v>0.003079278984381963</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.675031333333333</v>
+        <v>0.08097566666666667</v>
       </c>
       <c r="H4">
-        <v>11.025094</v>
+        <v>0.242927</v>
       </c>
       <c r="I4">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505014</v>
       </c>
       <c r="J4">
-        <v>0.2032371147293133</v>
+        <v>0.005588990034505015</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>18.637829</v>
       </c>
       <c r="O4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q4">
-        <v>22.83153518676955</v>
+        <v>0.5030702094981111</v>
       </c>
       <c r="R4">
-        <v>205.483816680926</v>
+        <v>4.527631885483</v>
       </c>
       <c r="S4">
-        <v>0.03071586796145508</v>
+        <v>0.0007097450003390326</v>
       </c>
       <c r="T4">
-        <v>0.03071586796145509</v>
+        <v>0.0007097450003390325</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>30.325482</v>
       </c>
       <c r="I5">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="J5">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N5">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O5">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P5">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q5">
-        <v>80.26550934408601</v>
+        <v>159.265789036662</v>
       </c>
       <c r="R5">
-        <v>722.389584096774</v>
+        <v>1433.392101329958</v>
       </c>
       <c r="S5">
-        <v>0.1079833119719673</v>
+        <v>0.2246964645483473</v>
       </c>
       <c r="T5">
-        <v>0.1079833119719673</v>
+        <v>0.2246964645483473</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>30.325482</v>
       </c>
       <c r="I6">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="J6">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>80.861542</v>
       </c>
       <c r="O6">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P6">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q6">
         <v>272.462804045916</v>
@@ -818,10 +818,10 @@
         <v>2452.165236413244</v>
       </c>
       <c r="S6">
-        <v>0.3665514143057627</v>
+        <v>0.3843978619661607</v>
       </c>
       <c r="T6">
-        <v>0.3665514143057627</v>
+        <v>0.3843978619661606</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>30.325482</v>
       </c>
       <c r="I7">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="J7">
-        <v>0.5590213983169419</v>
+        <v>0.6976944377922635</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>18.637829</v>
       </c>
       <c r="O7">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P7">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q7">
         <v>62.800127539842</v>
@@ -880,10 +880,10 @@
         <v>565.201147858578</v>
       </c>
       <c r="S7">
-        <v>0.0844866720392119</v>
+        <v>0.08860011127775558</v>
       </c>
       <c r="T7">
-        <v>0.08448667203921191</v>
+        <v>0.08860011127775556</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>12.896868</v>
       </c>
       <c r="I8">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732315</v>
       </c>
       <c r="J8">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732316</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N8">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O8">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P8">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q8">
-        <v>34.13544025329734</v>
+        <v>67.73280167885467</v>
       </c>
       <c r="R8">
-        <v>307.218962279676</v>
+        <v>609.595215109692</v>
       </c>
       <c r="S8">
-        <v>0.04592331032711308</v>
+        <v>0.09555926080075873</v>
       </c>
       <c r="T8">
-        <v>0.04592331032711308</v>
+        <v>0.09555926080075873</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>12.896868</v>
       </c>
       <c r="I9">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732315</v>
       </c>
       <c r="J9">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732316</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>80.861542</v>
       </c>
       <c r="O9">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P9">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q9">
         <v>115.8734037167173</v>
@@ -1004,10 +1004,10 @@
         <v>1042.860633450456</v>
       </c>
       <c r="S9">
-        <v>0.1558875537580815</v>
+        <v>0.1634773186872939</v>
       </c>
       <c r="T9">
-        <v>0.1558875537580815</v>
+        <v>0.1634773186872939</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>12.896868</v>
       </c>
       <c r="I10">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732315</v>
       </c>
       <c r="J10">
-        <v>0.2377414869537448</v>
+        <v>0.2967165721732316</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>18.637829</v>
       </c>
       <c r="O10">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P10">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q10">
         <v>26.70773560217467</v>
@@ -1066,10 +1066,10 @@
         <v>240.369620419572</v>
       </c>
       <c r="S10">
-        <v>0.03593062286855018</v>
+        <v>0.03767999268517892</v>
       </c>
       <c r="T10">
-        <v>0.03593062286855019</v>
+        <v>0.03767999268517892</v>
       </c>
     </row>
   </sheetData>
